--- a/biology/Médecine/1474_en_santé_et_médecine/1474_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1474_en_santé_et_médecine/1474_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1474_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1474_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1474 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1474_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1474_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Janvier : selon la Chronique scandaleuse de Jean de Roye, un chirurgien parisien du nom de Germain Collot aurait réussi l'opération de la taille sur un archer condamné à mort[1], mais le texte est trop imprécis pour qu'on en déduise la nature exacte du procédé, et certains vont même jusqu'à penser qu'il a pu s'agir d'une néphrostomie[2],[3].
-Fondation de l'hôpital du Saint-Esprit à Copenhague  par le roi Christian Ier[4].
-Fondation à La Cellette, en Limousin, d'un asile qui est à l'origine de l'actuel centre hospitalier du Pays d'Eygurande[5],[6].
-Fondation de l'hôpital de la Quarantaine à Lyon, pour les victimes de la peste[7].
-Fondation de l'université de Saragosse, où la médecine est enseignée dès l'origine[8].
-1474-1476 : fondation de l'hôpital Notre-Dame de la Tombe, à Kain, près de Tournai, en Hainaut[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Janvier : selon la Chronique scandaleuse de Jean de Roye, un chirurgien parisien du nom de Germain Collot aurait réussi l'opération de la taille sur un archer condamné à mort, mais le texte est trop imprécis pour qu'on en déduise la nature exacte du procédé, et certains vont même jusqu'à penser qu'il a pu s'agir d'une néphrostomie,.
+Fondation de l'hôpital du Saint-Esprit à Copenhague  par le roi Christian Ier.
+Fondation à La Cellette, en Limousin, d'un asile qui est à l'origine de l'actuel centre hospitalier du Pays d'Eygurande,.
+Fondation de l'hôpital de la Quarantaine à Lyon, pour les victimes de la peste.
+Fondation de l'université de Saragosse, où la médecine est enseignée dès l'origine.
+1474-1476 : fondation de l'hôpital Notre-Dame de la Tombe, à Kain, près de Tournai, en Hainaut.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1474_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1474_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, imprimée à Ferrare, du De oculis eorumque egritudinibus et curis de Benvenuto Grassi (XIVe s.[10]).
-Première édition, imprimée à Milan, du commentaire du Canon d'Avicenne de Jacques de Forli (it) (c. 1364-1414), rédigé à Padoue vers 1413-1414[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, imprimée à Ferrare, du De oculis eorumque egritudinibus et curis de Benvenuto Grassi (XIVe s.).
+Première édition, imprimée à Milan, du commentaire du Canon d'Avicenne de Jacques de Forli (it) (c. 1364-1414), rédigé à Padoue vers 1413-1414.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1474_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1474_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +593,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>26 juillet : Robert Poitevin (né à une date inconnue), médecin, étudiant à Paris et Montpellier, chancelier de l'université de Poitiers, professeur à Paris, exécuteur testamentaire d'Agnès Sorel qu'il fut soupçonné d'avoir empoisonnée, médecin des rois Charles VII et Louis XI[12],[13].
-Hermentaire Toussaint (né à une date inconnue), apothicaire à Grasse en Provence[14].
-Jean Candel (né à une date inconnue), chirurgien au service de la cour de Bourgogne[15].
-Nicolas Tignosius (né à une date inconnue), médecin et philosophe italien, professeur à Pise, commentateur d'Aristote[16].
-1473 ou 1474 : André Leopardi (né à une date inconnue), médecin à Venise et à Belley[17].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>26 juillet : Robert Poitevin (né à une date inconnue), médecin, étudiant à Paris et Montpellier, chancelier de l'université de Poitiers, professeur à Paris, exécuteur testamentaire d'Agnès Sorel qu'il fut soupçonné d'avoir empoisonnée, médecin des rois Charles VII et Louis XI,.
+Hermentaire Toussaint (né à une date inconnue), apothicaire à Grasse en Provence.
+Jean Candel (né à une date inconnue), chirurgien au service de la cour de Bourgogne.
+Nicolas Tignosius (né à une date inconnue), médecin et philosophe italien, professeur à Pise, commentateur d'Aristote.
+1473 ou 1474 : André Leopardi (né à une date inconnue), médecin à Venise et à Belley.</t>
         </is>
       </c>
     </row>
